--- a/watanabe/AngularSample/doc/Angularについて.xlsx
+++ b/watanabe/AngularSample/doc/Angularについて.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="176">
   <si>
     <t>AngularJS</t>
     <phoneticPr fontId="1"/>
@@ -416,16 +416,6 @@
     <t>https://twotone.me/web/5124/</t>
   </si>
   <si>
-    <t>※Node.jsを複数バージョン入れて切り替えて使用する場合、nvm-windows　を使用する。</t>
-    <rPh sb="44" eb="46">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（すでにNode.jsがインストールされてる場合は一度アンインストールする）</t>
-  </si>
-  <si>
     <t>https://poppingcarp.com/angular_intro_setup_windows/</t>
   </si>
   <si>
@@ -460,22 +450,6 @@
     <t>https://www.bnote.net/front-end/nvm.html</t>
   </si>
   <si>
-    <t>プロキシ環境下の場合、設定必要。</t>
-    <rPh sb="4" eb="7">
-      <t>カンキョウカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>手順は下記参照。</t>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
@@ -752,6 +726,319 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル構造</t>
+    <rPh sb="4" eb="6">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://angular.jp/guide/file-structure</t>
+  </si>
+  <si>
+    <t>│  .browserslistrc</t>
+  </si>
+  <si>
+    <t>│  .editorconfig</t>
+  </si>
+  <si>
+    <t>│  .gitignore</t>
+  </si>
+  <si>
+    <t>│  angular.json</t>
+  </si>
+  <si>
+    <t>│  karma.conf.js</t>
+  </si>
+  <si>
+    <t>│  package-lock.json</t>
+  </si>
+  <si>
+    <t>│  package.json</t>
+  </si>
+  <si>
+    <t>│  README.md</t>
+  </si>
+  <si>
+    <t>│  tsconfig.app.json</t>
+  </si>
+  <si>
+    <t>│  tsconfig.json</t>
+  </si>
+  <si>
+    <t>│  tsconfig.spec.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  </t>
+  </si>
+  <si>
+    <t>├─.angular</t>
+  </si>
+  <si>
+    <t>│  └─cache</t>
+  </si>
+  <si>
+    <t>│      ├─angular-webpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│      │          </t>
+  </si>
+  <si>
+    <t>│      └─babel-webpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│              </t>
+  </si>
+  <si>
+    <t>├─node_modules</t>
+  </si>
+  <si>
+    <t>└─src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  favicon.ico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  main.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  polyfills.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  styles.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  test.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├─app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      app.component.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      app.component.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      app.component.spec.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      app.component.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      app.module.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├─assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      .gitkeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └─environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            environment.prod.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            environment.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>my-app</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードエディタ向けの設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitに無視してほしいファイルの設定</t>
+    <rPh sb="4" eb="6">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットブラウザとさまざまなフロントエンドツールのNode.jsのバージョンの共有設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npmクライアントによりnode_modulesにインストールされたすべてのパッケージのバージョン情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークスペース内の全プロジェクトが利用可能なnpmパッケージの依存関係 の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紹介用のドキュメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークスペースのプロジェクトのTypeScriptの基本設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションのロジックやデータが定義されているコンポーネントファイルが含まれている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像ファイルやその他のアセットファイルなどアプリケーションをビルドした時にそのままコピーされるべきものが格納される</t>
+    <rPh sb="52" eb="54">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のターゲット環境向けのビルド設定。フォルトでは名前のない標準開発環境と本番("prod")環境が用意される。追加でターゲット環境設定を定義できる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブックマークバーで利用されるアプリケーションのアイコン。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインのHTMLページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションのメインエントリーポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザサポートのためのpolyfillスクリプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトに適用するスタイルをもつCSSファイルを記載。拡張子はプロジェクトに設定したスタイルプロセッサーを反映。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Angular特有の設定をもつ単体テストのメインエントリーポイント。基本的にこのファイルを編集する必要はない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppComponent という名前のアプリケーションのルートコンポーネントのロジックを定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルート AppComponent に関連付けられているHTMLテンプレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルート AppComponent の基本CSSスタイルシートを定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルート AppComponent のユニットテストを定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppModule という名前のルートモジュールを定義し、Angularにアプリケーションの組み立て方法を指示している。 アプリケーションにコンポーネントを追加すると、それらをここで宣言する必要がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TypeScriptおよびAngularテンプレートコンパイラオプションを含む、アプリケーション固有の TypeScript の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション固有の Karma の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションテスト用の TypeScript の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークスペース内のすべてのプロジェクトを対象としたCLIのデフォルト設定←マルチプロジェクト作成する場合は公式参照し、先にワークスペースを作成する必要あり。</t>
+    <rPh sb="46" eb="48">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロキシ環境下の場合は設定が必要。</t>
+    <rPh sb="4" eb="7">
+      <t>カンキョウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Node.jsを複数バージョン入れて切り替えて使用する場合、nvm-windows　を使用する模様。参考まで。</t>
+    <rPh sb="44" eb="46">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトを実行する。</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しくは公式参照</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,15 +1071,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -800,15 +1093,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -833,13 +1234,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>343819</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -871,13 +1272,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>487087</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1190,6 +1591,164 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="線吹き出し 2 (枠付き) 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="2228850"/>
+          <a:ext cx="2647950" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 20445"/>
+            <a:gd name="adj2" fmla="val -2218"/>
+            <a:gd name="adj3" fmla="val -6674"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -4449"/>
+            <a:gd name="adj6" fmla="val -44509"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>routing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が必要な場合は「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」入力。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="線吹き出し 2 (枠付き) 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="3190875"/>
+          <a:ext cx="2647950" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11759"/>
+            <a:gd name="adj2" fmla="val 4257"/>
+            <a:gd name="adj3" fmla="val -49047"/>
+            <a:gd name="adj4" fmla="val 3836"/>
+            <a:gd name="adj5" fmla="val -140042"/>
+            <a:gd name="adj6" fmla="val -15732"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スタイルシートのフォーマット選択。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のほか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SaaS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>などが選べる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1458,7 +2017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1748,7 +2309,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1817,154 +2378,175 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="47" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C71" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C75" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1977,45 +2559,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
@@ -2023,72 +2606,386 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C48" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C53" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C53" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B113" t="s">
+    <row r="115" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C115" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C114" t="s">
+    <row r="116" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C116" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B168" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C170" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C115" t="s">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C172" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C173" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C116" t="s">
-        <v>104</v>
+      <c r="G173" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C174" t="s">
+        <v>107</v>
+      </c>
+      <c r="G174" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C175" t="s">
+        <v>108</v>
+      </c>
+      <c r="G175" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C176" t="s">
+        <v>109</v>
+      </c>
+      <c r="G176" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C177" t="s">
+        <v>110</v>
+      </c>
+      <c r="G177" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C178" t="s">
+        <v>111</v>
+      </c>
+      <c r="G178" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C179" t="s">
+        <v>112</v>
+      </c>
+      <c r="G179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C180" t="s">
+        <v>113</v>
+      </c>
+      <c r="G180" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C181" t="s">
+        <v>114</v>
+      </c>
+      <c r="G181" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C182" t="s">
+        <v>115</v>
+      </c>
+      <c r="G182" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C183" t="s">
+        <v>116</v>
+      </c>
+      <c r="G183" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C184" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C185" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C186" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C187" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C188" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C189" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C190" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C191" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C192" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C193" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C194" t="s">
+        <v>126</v>
+      </c>
+      <c r="G194" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C195" t="s">
+        <v>127</v>
+      </c>
+      <c r="G195" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C196" t="s">
+        <v>128</v>
+      </c>
+      <c r="G196" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C197" t="s">
+        <v>129</v>
+      </c>
+      <c r="G197" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C198" t="s">
+        <v>130</v>
+      </c>
+      <c r="G198" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C199" t="s">
+        <v>131</v>
+      </c>
+      <c r="G199" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C200" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="201" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C201" t="s">
+        <v>133</v>
+      </c>
+      <c r="G201" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C202" t="s">
+        <v>134</v>
+      </c>
+      <c r="G202" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C203" t="s">
+        <v>135</v>
+      </c>
+      <c r="G203" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C204" t="s">
+        <v>136</v>
+      </c>
+      <c r="G204" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C205" t="s">
+        <v>137</v>
+      </c>
+      <c r="G205" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="206" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C206" t="s">
+        <v>138</v>
+      </c>
+      <c r="G206" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C207" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C208" t="s">
+        <v>140</v>
+      </c>
+      <c r="G208" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="209" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C209" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C210" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="211" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C211" t="s">
+        <v>142</v>
+      </c>
+      <c r="G211" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="212" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C212" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="213" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C213" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="214" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C214" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/watanabe/AngularSample/doc/Angularについて.xlsx
+++ b/watanabe/AngularSample/doc/Angularについて.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Angularとは" sheetId="1" r:id="rId1"/>
     <sheet name="TypeScript" sheetId="2" r:id="rId2"/>
     <sheet name="環境構築" sheetId="3" r:id="rId3"/>
     <sheet name="HelloWorld" sheetId="4" r:id="rId4"/>
+    <sheet name="Angular入門" sheetId="5" r:id="rId5"/>
+    <sheet name="めも" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="220">
   <si>
     <t>AngularJS</t>
     <phoneticPr fontId="1"/>
@@ -1039,6 +1041,547 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.tohoho-web.com/ex/angular.html</t>
+  </si>
+  <si>
+    <t>下記サイトのチュートリアルでお試しでソースいじってみるのが良いかなと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ng generate component [コンポーネント名]</t>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>src/app/app.module.tsへのモジュール追加もやってくれます。</t>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルが生成されるので中身を作っていく感じです。</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの中身をサイトからコピペした後</t>
+    <rPh sb="5" eb="7">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・変数宣言</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定義の型を追加すると、値が入らない場合があると明示</t>
+    <rPh sb="0" eb="3">
+      <t>ミテイギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限定代入アサーションは別の場所で初期化しているので値は設定されると明示</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンテイダイニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>メイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TypeScript初心者なので間違ってるかもしれませんが・・・</t>
+    <rPh sb="10" eb="13">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化するか、クイックフィックスに出るどちらかを選択すれば解決する。</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤枠部分の宣言はTypeScriptのバージョンや設定によって、Visual Studio Codeに図のようなエラーが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ルーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーティングモジュールの設定がサイトだと下記変更箇所しか載っていないが、これだけだとエラーになる。</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単純に上記赤字部分だけ入れたところ</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうすると成功する。</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（最初からRouteModuleの設定が記載されてればエラーにならないと思うので読み飛ばしてください。）</t>
+    <rPh sb="1" eb="3">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■コンポーネントの追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★サイトの説明だけだとエラーになるもの（試してみたところまでで）</t>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■サービスの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleのデザインガイドライン「Material Design」に対応したAngularのコンポーネント（UI部品）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Angular Material導入方法</t>
+    <rPh sb="17" eb="19">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npm install --save @angular/material @angular/cdk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記コマンドで追加</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しくはサイト参照</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ng generate service [サービス名]</t>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的にコマンドはプロジェクト直下で実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記コマンドを実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app.module.ts に サービスを追加する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントと違って自動的に追加されない模様。手動で追加。</t>
+    <rPh sb="8" eb="9">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（Userにundefinedが入る可能性があるので型が違うと怒られてるっぽい。）</t>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strictNullChecksがtrueのとき赤枠の処理がエラーとなるらしい。</t>
+    <rPh sb="24" eb="26">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定処理入れてundefined回避するとエラーが消える。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cssにAngular Material 用の CSS ファイルを読み込む。</t>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app.module.tsへの追加する。（Formやダイアログなどのモジュールも追加必要）</t>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Visual Studio Codeのフォルダが見辛い・・・（Javaのプロジェクトだったら良いけど・・・）</t>
+    <rPh sb="24" eb="26">
+      <t>ミヅラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定＞機能＞エクスプローラーで赤枠のチェックをはずす</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>アカワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓こうなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・型関連</t>
+    <rPh sb="1" eb="2">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況に応じて型判断してくれるらしい。。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数の型もエラーになる箇所あり。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TypeScript、JavaScriptやhtmlのフォーマッターを決めておかないとおそらく改行や文字列の囲みで差が出る。</t>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準のフォーマッターのほか、Prettierなどもあり。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は上記サイトに従い途中までお試ししてみたところメモ。（「モーダルダイアログを表示する」あたりまで）</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1071,7 +1614,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,6 +1624,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1210,6 +1759,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1752,6 +2302,1892 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>362288</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3829050"/>
+          <a:ext cx="2419688" cy="4782217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581872</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3829050"/>
+          <a:ext cx="6068272" cy="4801270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895599" y="6362700"/>
+          <a:ext cx="2609851" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 200392"/>
+            <a:gd name="adj4" fmla="val -37874"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>緑が追加されたフォルダとファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="線吹き出し 1 (枠付き) 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="6067425"/>
+          <a:ext cx="2390775" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 34102"/>
+            <a:gd name="adj4" fmla="val -40663"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加されたコンポーネント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2400300"/>
+          <a:ext cx="9316750" cy="3191320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="下矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="5734049"/>
+          <a:ext cx="685800" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532133</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>227976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12163425"/>
+          <a:ext cx="10133333" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419350</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>66850</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="28632150"/>
+          <a:ext cx="1790950" cy="1257475"/>
+          <a:chOff x="685800" y="18354675"/>
+          <a:chExt cx="1790950" cy="1257475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="図 20"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="18354675"/>
+            <a:ext cx="1790950" cy="1257475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="角丸四角形 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="876300" y="18802350"/>
+            <a:ext cx="1266825" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295986</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>86269</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="30060900"/>
+          <a:ext cx="5096586" cy="3896269"/>
+          <a:chOff x="685800" y="19783425"/>
+          <a:chExt cx="5096586" cy="3896269"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="図 23"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="19783425"/>
+            <a:ext cx="5096586" cy="3896269"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="角丸四角形 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="847725" y="21440775"/>
+            <a:ext cx="1266825" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372113</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>47741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="18764250"/>
+          <a:ext cx="4572638" cy="828791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5934075" y="18573750"/>
+          <a:ext cx="28575" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171953</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>19152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24307800"/>
+          <a:ext cx="3600953" cy="733527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>496135</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>228964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="26689050"/>
+          <a:ext cx="5982535" cy="2610214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200914</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>219704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="29784675"/>
+          <a:ext cx="6373114" cy="4505954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306087</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>66983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="34309050"/>
+          <a:ext cx="9221487" cy="2210108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581968</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>162579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="36928425"/>
+          <a:ext cx="6754168" cy="4686954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="線吹き出し 1 (枠付き) 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="40481250"/>
+          <a:ext cx="2609850" cy="800101"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 39030"/>
+            <a:gd name="adj4" fmla="val -24774"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CommonModule</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を削除。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>RouteModule</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を追加する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="40509825"/>
+          <a:ext cx="2486025" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="角丸四角形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="38890575"/>
+          <a:ext cx="4467225" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="37833300"/>
+          <a:ext cx="5791200" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>258455</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>171540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="18135600"/>
+          <a:ext cx="9173855" cy="647790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96125</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19802475"/>
+          <a:ext cx="6268325" cy="4858428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="20716875"/>
+          <a:ext cx="3943350" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="23802976"/>
+          <a:ext cx="2038350" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>562723</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>95994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="52444650"/>
+          <a:ext cx="5363323" cy="5334744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381723</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>28778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="52444650"/>
+          <a:ext cx="5182323" cy="1457528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="角丸四角形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="55759350"/>
+          <a:ext cx="4019550" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89773</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>145029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170792</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>97404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="右矢印 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18990592">
+          <a:off x="4890373" y="54732804"/>
+          <a:ext cx="2138419" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>124608</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>162479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="59112150"/>
+          <a:ext cx="5611008" cy="3972479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="62293500"/>
+          <a:ext cx="504825" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>162330</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>76277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="62207775"/>
+          <a:ext cx="2905530" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448676" y="62179201"/>
+          <a:ext cx="476250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="右矢印 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="62293500"/>
+          <a:ext cx="2095500" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600446</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="2657846" cy="1057423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96412</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1905000"/>
+          <a:ext cx="8326012" cy="3448531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657604</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5715000"/>
+          <a:ext cx="2715004" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="4133850"/>
+          <a:ext cx="6115050" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2017,9 +4453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2561,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2988,4 +5422,279 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K261"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="H9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B110" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B113" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B115" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B118" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B119" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B120" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B168" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B198" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B221" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B222" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B223" t="s">
+        <v>206</v>
+      </c>
+      <c r="K223" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B248" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K261" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>